--- a/500all/speech_level/speeches_CHRG-114hhrg97998.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97998.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order.    First, on behalf of all of the members of our subcommittee, we would like to express our deepest condolences to our dear friend and the ranking member of this subcommittee, Ted Deutch. Ted's mom, Jean, passed away last week, and I know that the hearts of every member of this committee go out to Ted and his family during this difficult time.    In Ted's absence, Mr. Connolly will serve as our ranking member today.    After recognizing myself and Ranking Member Connolly for 5 minutes each for our opening statements, I will then recognize any other member seeking recognition for 1 minute.    We will then hear from our esteemed panel of witnesses.    And, without objection, the witnesses' prepared statements will be made a part of the record, and members may have 5 days to insert statements and questions for the record subject to the length and limitation in the rules.    The chair now recognizes herself for 5 minutes. This is the second part of a hearing that we began in May, looking at Egypt's transition since Morsi was removed from power. In the hearing earlier this year, we heard some differences of opinion about the best way to move forward with our policy on Egypt, including exactly how much leverage the United States has or should attempt to wield over Egypt's domestic affairs. Egypt is an important ally and security partner for the United States. Egypt's strategic location, its assurance of safe passage through the Suez Canal, its peace treaty with Israel, and its demographics and cultural influence all mean that Egypt will continue to play a positive, crucial role in the Middle East in the years ahead.    Egypt is in a struggle with terrorism and Islamic jihadist groups, like ISIS and Al Qaeda, a struggle that will not be over, sadly, any time soon. It is essential that we maintain alliances like the one we have with Egypt, not only as a partner in providing logistical support in the region but also as a participant in our shared fight against a twisted radical Islamic ideology.    Egypt's strong relationship with Israel, particularly with regard to their antiterrorism cooperation in the Sinai, is also of strategic benefit to us in the United States, especially in a region that so often appears bent on Israel's destruction. Yes, we have significant human rights concerns with Egypt, including inexcusable restrictions on freedom of the press, assembly, association, and expression; yes, reports of deplorable prison conditions, torture, and inhumane treatment, and discrimination of women and minorities should not and must not be swept under the rug. These issues must be addressed, and I continue to call on Egypt to improve its human rights practices and to allow more political space for Egyptian civil society.    The Egyptians are increasingly looking elsewhere for friends and allies outside of the United States, and it doesn't help when the Obama administration--excuse me, Mr. Connolly--keeps sending mixed messages.    We can work with Egypt to improve our security relationship, to push for human rights changes that we want to see, and to help it toward a long-term stability, economic growth, and progress on the democracy front that President Sisi himself has advocated because make no mistake: Long-term stability will only come with the kind of prosperity, respect for human rights, and self-determination that allows all Egyptians to feel that they have a say in the future of their beloved country.    Egypt just finished the last runoff in its long-delayed parliamentary elections, and while initial observations and reports do not indicate significant progress, I am hopeful that the new legislature will be able to make greater strides in the months ahead. As we all know, democracy is more than just elections, and both the Sisi government and the new legislature should use this time to set the stage for a full democratic transition in the future. One sign of goodwill that President Sisi could make immediately is pardoning the 43 pro-democracy NGO workers who were wrongly convicted in 2013 under Morsi. Correcting Morsi's mistakes this way would go a long way in demonstrating President Sisi's commitment to a democratic future and in repairing the damage that both the Morsi and the Obama administration did to the U.S.-Egypt relationship.    Despite the Obama administration's missteps, the Egyptian people should know that they do have a friend in the United States, a friend who is ready to be a better partner, a stronger ally, and one who is ready to assist when asked in order to achieve the stable, prosperous, open, and inclusive nation that Egyptians all deserve.    Lastly, I would like to once again thank my good friend from Virginia, our ranking member acting today in this capacity. I know that Mr. Connolly has followed these issues for years, ever since he was a Senate staffer on the Foreign Relations Committee. In June 2014, Mr. Connolly and I, as a matter of fact, asked GAO for a study, a report on U.S. foreign assistance to Egypt. And in a couple of days, we will receive the third installment of our report. And I know that we are looking forward to that.    And, with that, I am pleased to yield to today's ranking member, my good friend from Virginia, Mr. Connolly.</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. I thank the chair, and, gosh, I didn't know she was aware of my past work with the U.S. Senate Committee on the Foreign Relations.    The title of this hearing is ``Egypt Two Years After Morsi (Part II).'' It might be more appropriate to acknowledge that Egypt has moved beyond the post-Morsi period and transitioned clearly into a new and distinctly different era, clearly under the leadership of President Abdel Fattah el-Sisi. While we can still view many domestic developments in Egypt within the context of President Morsi's removal from power and the upheaval experienced during and subsequent to the 2013 military coup, Egypt's new leader, President el-Sisi, increasingly owns this moment in Egyptian history.    The U.S. has long paid a price for stability through a strategically important relation with Egypt, and it is the people of Egypt who have had to bear the price with respect to eroded rule of law, the loss of any political space, and the limits on freedom of expression. However, it is in this uniquely el-Sisi moment in Egyptian history that we have seen the simultaneous dissolution of security and democratic freedoms. As we move beyond the re-litigation of the 2013 coup, and as Egypt turns the page on the post-Morsi era, the U.S. owes this important relationship an honest appraisal of Egypt under this new government.    First, the U.S.-Egypt relationship is critical to regional stability and U.S. security interests. As the second largest recipient of U.S. military assistance and a major non-NATO ally, Egypt has long undergirded our security strategy in the Middle East, chief among which is, of course, preservation and maintenance of the Camp David Accords. The U.S. brokered the 1979 peace treaty between Egypt and Israel, ended a historical pattern of violence between the two nations and brought collaboration in a relationship previously defined by absolute conflict. The fact that the treaty was affirmed under both Morsi and now el-Sisi is the kind of continuity and commitment to peace this region desperately needs.    However, the Arab world's most populace nation faces a growing security threat from within, including terrorists blowing out of Libya into the Sinai, and the Egyptian Government has been beset with the challenge of trying to quell these insurgencies, where more than 700 security and defense personnel--Egyptian personnel--have, in fact, been killed.    The breakup of the Russian jet over the Sinai that claimed 224 lives was one of the more high-profile demonstrations of security failures in Egypt to date. The U.S. provides defense articles to assist with counterterrorism initiatives, but cooperation has suffered from poor relationships with Egyptian security institutions whose interests are sometimes misaligned with those of the United States. The effort to align and strengthen those relationships has been tempered by what many have characterized as a faltering democratic tradition--transition in Egypt punctuated with significant human rights violations. Congress has raised concerns about the trajectory of Egyptian democracy and put limiting conditions on U.S. assistance in the consolidated appropriations bills of Fiscal Year 2014 and Fiscal Year 2015.    I have been glad, as the chairman noted, to collaborate with Chairman Ileana Ros-Lehtinen, in working with the GAO to evaluate ongoing security assistance programs in Egypt. Despite the administration's March 31 announcement that it would release frozen military assistance to Egypt, concerns remain. The Secretary of State has yet to certify that Egypt is supporting democratic transition, and we have witnessed troubling developments in the judicial system and brutal crackdowns conducted by security forces. The stream of mass death sentences--death sentences--handed down by Egyptian judges and the killings at al-Nahda and Rabaa al-Adawiya squares erode confidence in the rule of law. The announcement that former President Morsi himself has been sentenced to death was labeled unjust by our own State Department, and there is no doubt that carrying out the sentence would perpetuate the cycle of violence and zero-sum politics in Egypt.    It is estimated that there are now more than 40,000 political prisoners, along with 22 journalists behind bars in Egypt. I have met with individuals personally affected by this crackdown, including a young man, Mohammed Sultan, a young activist detained for more than 400 days after participating in citizen protests. I joined human rights groups in the U.S. State Department in advocating for his release and was pleased to see him finally return home to his family and have the opportunity to meet with Secretary Kerry to discuss his ordeal. What is important: Mohammed Sultan is an American and a victim of the Egyptian justice in the el-Sisi era.    The recently concluded House of Representatives elections did little to consolidate democratic gains, as the chair alluded. As the State Department noted on December 4 regarding those elections, the U.S. remains ``concerned about low voter turnout and limited participation by opposition parties''--it is a bit of an understatement--``Furthermore, the United States continues to have concerns about limits on freedom of peaceful assembly, association, and expression, and their impact on the political climate in Egypt and calls upon the Government of Egypt to ensure these fundamental freedoms.''    As we discuss U.S.-Egypt relations, we must ask ourselves difficult questions about the long-term goals of the relationship in light of backsliding on both the security and civil engagement fronts. Those goals should inform our dialogue with the el-Sisi government and how we confront the fissures that have opened up in this alliance.    One thing of which we can be sure is that continued human rights abuses and power consolidation at the expense peaceful opposition in Egypt is neither consistent with U.S. interests and principles nor an expedient path to an ultimately secure region.    I look forward to hearing the testimony. Thank you, Madam Chair.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Madam Chairman, and thank you for your leadership in this very important time in our history in dealing with Middle East issues. President el-Sisi and his team have saved not just the people of Egypt but the entire Middle East from an unstoppable onslaught of radical Islamic terrorism. That is the bottom line. If he would not have acted, if he was not there today, if he fails, radical Islamic terrorism--that is fundamentally anti-Western in nature--will succeed throughout the Middle East. Leading up to al-Sisi's courageous actions, President Morsi made it clear that he was discarding the pledges of moderation and democratic reform. Morsi was and is part of the Muslim Brotherhood, which for decades has struggled to obtain power in order to achieve radical Islamic objectives. Let's note that one of President Morsi's promises was to free The Blind Sheikh, who is now being held in the United States, for his leadership and guidance in the attack on the World Trade Center, which he was trying to kill thousands of Americans. Yet Mr. Morsi was promising to free him from American captivity.    President Morsi's radical agenda became evident, and the people of Egypt rose up against what they saw was turning Egypt into an anti-Western caliphate. El-Sisi stepped in at that time when there were massive demonstrations against Morsi and prevented bloodshed at that point. And, of course, he won't get credit for that.    And we know that during times of crisis like this, whether it is in our country or other countries, there are things that are totally not consistent with a democratic society at times when things are stable. That is why it is important to lead Egypt toward stability and more democratic process. Morsi set out to do just that.    One last note, if Egypt, again, falls to radicalism, anti-Western radicalism, soon all the governments in that part of the world will be overwhelmed. There is no question about that. Our own Government has not been supportive, using the imperfections, which are many--and we have imperfections here, I might add, many of them--using those imperfections as an excuse to perhaps put us in jeopardy for a major expansion of radical Islamic terrorism in that part of the world. Thank you very much for your hearing today.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Madam Chair.    Thank you for your leadership and might I say your consistent voice on this issue. There has never been a day that we can't look to your leadership on this particular issue, and I thank you for that. As the witnesses testify today, I think probably the biggest issue that many of us will be looking toward hearing is, how do we take a system that is perhaps not perfect but also address those issues in a spirit of respect and truly out of appreciation for where Egypt is today?    It would be a mistake to focus so much on the imperfections without acknowledging some of the areas that have been addressed, and specifically Ambassador Tawfik, who is now back in Egypt, was the Ambassador from Egypt to Washington, DC, to the United States, during both government operations, was a personal friend. And one of the things that continued to be mentioned over and over again was how the Egyptian people felt like the United States had abandoned them in that friendship.    So if there is one message, Madam Chairman, that I want to communicate to the Egyptian people today, it is that there are a number of us, not just on Capitol Hill but across the United States, who look forward to an ongoing personal relationship with those in Egypt and that they can count on not only our strategic partnership but our friendship as we work through some of the difficulties that may face us.    I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Chairwoman Ros-Lehtinen and Ranking Member Connolly. Although it has been a tumultuous few years, Egypt has always been an important and integral part of the United States-Middle East policy, even more so as our allies in the region face a range of threats from various state and non-state actors.    While most of the testimony today is going to rightfully be focused on security and stability in the elections, I would like to bring awareness to the situation of the    Copts, the region's largest Christian community. This past October, we commemorated the 4-year anniversary of Maspero, where peaceful protestors, mostly Copts, were attacked by state security forces. January 1 commemorates the 5-year anniversary of the bombing of the All Saints Church in Alexandria, where Copts were attacked and killed reportedly by non-state actors. This follows a disturbing trend of persecution against a peaceful group of people who have been in Egypt since Saint Mark brought Christianitythere over 2,000 years ago. The Copts under Morsi and the Muslim Brotherhood were at the height of their modern-day persecution, with unprecedented attacks and rhetoric aimed at their Pope and religious institutions.    I was happy to see President Sisi visit a Coptic church to celebrate Christmas last year, and I hope that this is a sign that his administration will be as inclusive as possible with the Copts. This is an important issue I plan to stay focused on as Egypt looks to regain its footing, both domestically and internationally. I look forward to hearing from our esteemed panel particularly how the Copts are faring under President Sisi and what steps the Egyptian Government is taking to ensure that the Copts are part of Egypt's future.    I yield back my time.</t>
   </si>
   <si>
@@ -109,36 +94,24 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you to the chairwoman for having this hearing. You are always consistent, and we appreciate that, as Representative Meadows said.    I appreciate you all coming. I am very interested to see what you think about how Egypt is going to handle ISIS and at the same time treat their citizens, particularly Christians, fairly. What are they going to do with Russia? And how are they going to treat Israel? And how do you get all that right at the same time? I think they have got a big balancing act here, and I am very curious what you have all got to say about it because we need to stop ISIS. We need to protect all folks, particularly Christians in this case, and we have got to protect Israel. So I am looking forward to hearing what you all have to say.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you very much to all of our members for their opening statements.    I now would like to introduce our distinguished panel of witnesses. First, we are pleased to welcome Mr. David Schenker, who is the director of Arab Politics at the Washington Institute for Near East policy. Previously, Mr. Schenker has served as the Department of Defense top policy aide on Arab countries, and he is the author of several books on Middle Eastern countries, as well as a regular contributor to several major daily newspapers.    Welcome, sir.    Next, we would like to welcome Mr. Eric Bjornlund, who is the president and cofounder of Democracy International. Eric has served for the National Democratic Institute as a senior associate and Asia director and as director of program coordination and general counsel. He was also a Woodrow Wilson fellow at the Wilson International Center for Scholars.    Welcome.    And, last but certainly not least, we would like to welcome back Dr. Steven Cook, who is the senior fellow for Middle East and Africa at the Council on Foreign Relations. Prior to this, Dr. Cook was a research fellow at the Brookings Institution and Washington Institute for Near East Policy.    Thank you, gentlemen, for being with us. Your statements will be made a part of the record. Please feel free to summarize. We will start with Mr. Schenker.</t>
   </si>
   <si>
-    <t>Schenker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schenker. Thank you, Madam Chair, Ranking Member Connolly, distinguished members of the subcommittee. It is an honor to be here today to discuss security in Egypt 2 years after Morsi.    While the increasingly repressive trajectory of Sisi's Egypt should be a concern for Washington, the ongoing deterioration of security in Egypt is the more immediate threat. The recent downing of the Russian airliner over the Sinai by the Islamic State has drawn international attention to the problem. The reality, however, is that terrorism in Egypt is not confined to the Sinai. Terrorism in Egypt has traversed the Suez Canal and is taking root in the Nile valley.    Historically security in Egypt, and particularly in the Sinai, has never been particularly good, but it has deteriorated after the fall of Mubarak, and the violence spiked after the removal of Morsi, morphing into a full-scale Islamist insurgency now led by Wilayat Sinai, an Islamic State affiliate.    Since Morsi's removal, in addition to the bombed Russian airliner, we have seen tourists targeted the Sinai, checkpoints and police stations attacked, RPGs fired at ships in the Suez Canal. MANPADs have brought down ships and helicopters over the Sinai, and a Russian Kornet anti-tank weapon sunk an Egyptian warship in the Mediterranean off the Sinai coast. Over the past few years, more than 1,000 Egyptian soldiers and policemen are estimated to have been killed in the Sinai.    Meanwhile, west of the Suez Canal, Egypt resembles the country in the 1990s when the State battled an insurgency led by Gamaa al-Islamiyah. In 2014, there were more than 300 attacks perpetrated in Egypt outside of the Sinai, and that number is likely to double in 2015. In this past summer alone, you had the chief prosecutor of Egypt, Hisham Barakat, assassinated in Cairo. You had a state security building bombed in Cairo and a suicide bomber attempted to target tourists in Luxor, all within 2 months.    No doubt Egypt is situated in a difficult neighborhood, but many of problems are self-inflicted. Egypt, for example, has not prioritized border security with Libya, the primary source of weapons flowing to the Sinai. Egypt's domestic counterterrorism capabilities are likewise lacking. If the accidental killing of eight Mexican tourists in the Western Desert in September 2015 is any indication, intelligence gathering on communications between the military and other domestic security agencies is also a real problem. Clearly, intelligence gathering remains a serious deficit in the Sinai as well, even though cooperation with the Israelis is reportedly helping fill some gaps.    Security challenges facing Egypt are enormous, and at present, Cairo does not appear to be up to the task. Given the regional deterioration, the continued stability and security of Egypt should be a priority for the U.S. There is much that we can do to help--working with Cairo--to mitigate the threats. These might include counterterrorism training. Egypt's heavy-handed and purely military approach has not succeeded, and it is not likely to succeed. It is not a problem of manpower. It is a problem of tactics. Egypt is resistant to change, but Washington has to continue to push Egypt to adopt modern COIN, counterinsurgency, techniques.    Second, developing the Sinai. Egypt's Sinai counterinsurgency approach is one-dimensional, but successful COIN campaigns have both civilian and military aspects. Absent educational and economic opportunities, the Sinai will continue to prove fertile ground for jihadist recruitment. We really have to invest in the Sinai and get our allies to do so.    We should leverage the Gulf. We have not been particularly good or successful in conditioning assistance to Egypt. I don't think we should pursue that route. We should be working with our Gulf allies, who give a lot more money, frankly, to Egypt than we do. There would be a lot more leverage, I think, there. And they would help perhaps to get Egypt to move toward economic development and adopt modern COIN techniques in the Sinai.    We also need to increase visibility in the Sinai. Sinai currently is closed. We don't have a very good idea of what is going on, especially important given the extensive reports of collateral damage and human rights abuses there.    We should also help Egypt to secure its border with Libya. We pressed them to reprogram some of the $1.3 billion in their foreign assistance dollars to put different systems on the border. They have refused. They should devote financial resources to aerostat balloons, C4ISR, and even Black Hawk helicopters.    We have to help Egypt improve its airport security. This is a problem that Western financial and technical support can solve or at least help mitigate. We should prevent further unproductive delays in transfer of equipment. When we stop the flow, for example, of Apache helicopters, that is a primary tool in the counterinsurgency. There are other things we can keep from Egypt if we want to express our disappointment or anger with them. They viewed this, the withholding of the Apaches, as confirming the conspiracy that we wanted the return of the Muslim Brotherhood to government in Egypt.    Finally, we should avoid trying to leverage U.S. military assistance. It is not a productive policy. Even though the human rights are problematic and perhaps counterproductive to long-term stability of Egypt, the cutoff in U.S. assistance will neither improve Cairo's conduct nor enhance our already fraught bilateral relationship.    With that, thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you very much. Excellent suggestion.    Mr. Bjornlund.</t>
   </si>
   <si>
-    <t>Bjornlund</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bjornlund. Thank you, Madam Chairman, Ranking Member Connolly, other distinguished members of the subcommittee. It is an honor to appear today to address these important issues.    The recent House of Representatives elections in Egypt, which took place in stages from October to early December, marked the conclusion of the so-called roadmap to democracy declared after the ouster of President Morsi in July 2013. While these recent elections, along with the constitutional referendum and Presidential election last year, have completed a process of civilianizing the highest levels of government, they have not resulted in a more free or democratic Egypt.    Since 2013, Democracy International has monitored the electoral component of the roadmap through multiple international observation missions and a regular presence in country. As president of DI, I have had the opportunity to visit Egypt many times since the spring of 2013 and to lead our observation missions there.    Democracy International deployed the largest international mission to observe the constitutional referendum in January 2014. In May 2014, we carried out one of the largest comprehensive missions to observe the Presidential election process. But after the parliamentary elections were rescheduled for October to December of this year, we were unable to obtain visas for core staff members and observers until after voting had commenced in October. This initially limited our access to the process during the pre-election period and precluded the deployment of a full observation mission for the first stage. We, nonetheless, observed voting in 158 locations in 5 governorates. For the second stage in November and early December, our observers witnessed the balloting in 422 locations in 8 governorates, and we conducted more than 160 meetings with a broad range of stakeholders.    The elections took place amidst a backdrop of arrests, an ongoing crackdown on civil society and the media, and forced disappearances. Once-strong movements and political parties have been silenced. Opponents of the government have been arrested. Courts have ordered dissolution of their organizations. And an orchestrated campaign equating dissent with terrorism is echoed by much of the Egyptian media. This climate has not been conducive to meaningful democratic elections.    Public interest in the most recent elections was muted. Turnout was relatively low, especially among younger Egyptians. During 8 days of voting across the country, our observers rarely saw voters under the age of 35. Critics of the government, including groups who might identify themselves as liberals, as well as those that opposed the removal of former President Morsi, were largely prevented from participating or chose to boycott. Islamist parties, which constituted a majority of the Parliament elected in January 2012, were almost entirely absent or excluded.    The electoral system did not promote inclusion. Most of the members were elected as individuals and are nominally independent; 120 of the 596 members were elected on a winner-take-all basis from lists running in four large districts. Unlike traditional list systems in other countries which provide a means for including smaller parties and minority points of view, the list portion of the system in Egypt had the opposite effect. In fact, For the Love of Egypt, which is widely perceived to have the support of the government, won all 120 of the list seats.    Despite the presence of international and domestic observers, the election process was not fully open to independent scrutiny. Domestic election observation was neither robust nor widespread. Legitimate accredited international observers encountered obstacles, while others were simply not able to participate. The Carter Center announced in 2014 that it would not monitor the legislative elections after assessing that political space has narrowed. NDI, IRI, the Konrad Adenauer Foundation, and Freedom House, among others, were not able to even consider the possibility of observing or otherwise supporting Egyptian efforts because of the unjust and widely condemned trials and spurious convictions of 43 NGO workers in 2013.    To the credit of the High Electoral Commission and those who provided technical assistance to it, especially the International Foundation for Election Systems, the balloting process for the elections was conducted in an administratively satisfactory manner, and polling officials appeared diligent and conscientious. Nevertheless, procedures in polling stations and for the counting where we observed varied considerably from one to another. This might have been more worrisome if voter turnout had been higher or the elections had been more vigorously contested.    We should not misinterpret the orderliness of these elections. Larger stories about the parties and candidates who were not allowed to participate, the voters who stayed away, and the independent observers, domestic and international alike, who could not observe, all of which has occurred in a climate of political repression and declining freedoms. These elections reflect the trend we have observed throughout the past 2 years, decreasing space for political competition and increasing repression of opposition.    Genuine democracy is the only path to long-term stability in Egypt. Political repression and a disregard for basic rights make real democracy impossible and will only increase the ongoing polarization of Egyptian society. For Egypt to move forward with peace and stability, its leaders need to embrace political inclusion and to reorient the country toward broader respect for human rights and effective democratic institutions.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you, sir.    Dr. Cook.</t>
   </si>
   <si>
-    <t>Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Madam Chair. And, Mr. Connolly, today the ranking member. It is a pleasure to be before you to discuss Egypt 2 years after Morsi.    As you are well aware, the United States has invested $76 billion in Egypt since 1948. Egypt is important to the United States because it is at peace with Israel; it operates the Suez Canal, which is critical to both global trade and U.S. security policy; and it provides logistical support to American Forces operating in and around the Middle East and the Horn of Africa.    There was tremendous hope after Hosni Mubarak fell in February 2011, that Egypt would become democratic, provide an opportunity for its people to live prosperous, dignified lives. Unfortunately, those hopes have been misplaced. The coup d'etat that brought an end to the Muslim Brotherhood's Mohammed Morsi's brief tenure at the Presidency has also not resulted in stability, prosperity, or democracy in Egypt. The most oft-cited figures are, since Morsi's ouster, an estimated 41,000 Egyptians have been jailed; about 3,000 have been killed. Those numbers, though, are certainly too low since they don't include most of 2015.    It is also important to point out, however, that 700 soldiers, officers, and other policemen, have lost their lives in a nasty insurgency raging in the Sinai Peninsula. In November 2014, in an ominous sign, the homegrown Egyptian jihadist group, Ansar Bayt al-Maqdis, pledged its allegiance to the self-declared Islamic State and changed its name to the Sinai Province of the Islamic State.    The four most important things that Members of Congress need to know about Egypt are the following: First, the Egyptian state is weak.    Second, President Sisi has not consolidated his power. That Sisi does not command the state should not be surprising. It took Mubarak the better part of a decade to clear away all of his opponents. In Egypt today, there is a struggle among multiple competing centers of power that include the Presidency, the armed forces, the General Intelligence Directorate, the Ministry of Interior, and the senior judiciary.    Three, Egypt's hypernationalist political discourse is polarizing and radicalizing the political arena.    Four, Sisi has clearly not learned the lessons of the Mubarak period. His overreliance on force and coercion is an inefficient means of establishing political control. If you ask me today if I believe that Egypt is stable, the intellectually honest answer is: I don't know, but President Sisi has offered us some clues to that stability based on the way he rules, and the way he rules, relying almost entirely on force and coercion, does not give me confidence.    What is the appropriate policy toward Egypt? It depends on what the United States wants, an issue with which policymakers have been struggling for the last 10 or 15 years. Democracy, it makes little sense to talk about supporting democratic transition in Egypt today. There is also little reason to believe that the United States has the capacity to influence the direction of Egyptian politics. The Obama administration went so far as to delay military assistance and change the terms of that aid for the future. Yet it did not change Egyptian behavior.    On the economy, some believe that this is an opportunity for the United States to make a difference on the Egyptian economy. We should be cautious here. Those in power in Egypt today do not believe in an inclusive, broad, capitalist political economic development, but rather they are statists.    On security, Egypt is confronting a significant threat in the Sinai Peninsula from extremist groups. Unlike the Government of Iraq, which until the recent Ramadi operation has relied on Shiite death squads, Egypt has used its regular army in the fight. For a variety of reasons related to the U.S. assistance program, the senior command's resistance to altering its doctrine, and restrictions on the armed forces that stem from the Egypt-Israel Peace Treaty, the military has proven itself neither well-prepared nor well-equipped to take on the insurgency. They are getting critical assistance from the United Arab Emirates and, if reports are to be believed, Israel, but only the United States can really provide the resources necessary for the Egyptians. If the Egyptian armed forces distrust the United States--I am in whole agreement with David Schenker, how the suspension of critical defense articles have driven a wedge between the United States and the Egyptian armed forces.    What should the United States do? Very quickly, three things. First, in our diplomacy with Egypt, we must emphasize first-order first principles of tolerance, equal application of law, compromise, and nonviolence. Second, we must invest in Egypt's political future. It seems now that Egypt's future is unstable and authoritarian, but Egypt can change very quickly. It is worth our time and effort to invest in that political future.    And then, finally, we must support Egypt's fight against extremists. The United States should maintain its assistance package at current levels. It should also encourage the Egyptians through the promise of additional resources to alter its doctrine, its mix of equipment, to meet what the Pentagon calls 21st century threats. It seems perverse to offer to pay the Egyptians to do something that they already should be doing. But if our national interest dictates that we should help the Egyptians in this fight, it is the most effective means to go forward.    One last thing. Policymakers should be realistic about Egypt. The United States and Egypt have enjoyed strategic relations since the mid-1970s. Those relations are changing. These two countries are drifting apart. The Egyptians, as you, Madam Chairman, pointed out, are looking for new friends around the world. This is something consistent in Egyptian foreign policy. We must be prepared that our ability to affect what happens in Egypt is rather limited.</t>
   </si>
   <si>
@@ -299,9 +272,6 @@
   </si>
   <si>
     <t>412525</t>
-  </si>
-  <si>
-    <t>Ted S. Yoho</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Madam Chair. And I apologize for getting here late.    Gentlemen, what is the status of ISIS in Egypt? And if you covered that already, I apologize. Are they growing? Do they have bases? Do they have training centers, recruitment centers, in your opinion? Mr. Schenker?</t>
@@ -784,11 +754,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -808,13 +776,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -836,11 +802,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -860,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -888,11 +850,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -912,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -940,11 +898,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -964,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -992,11 +946,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1016,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1044,11 +994,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1068,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1096,11 +1042,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1120,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1148,11 +1090,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1172,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1200,11 +1138,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1224,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1250,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1276,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1302,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1328,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1354,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1380,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1406,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1432,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1458,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1484,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1510,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1536,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1562,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1588,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1614,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1640,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1666,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1692,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1718,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1744,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1770,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1796,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1822,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1848,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1874,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1900,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1926,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1952,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1978,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2004,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2030,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2056,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2082,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2108,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2136,11 +2002,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2160,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2188,11 +2050,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2212,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2238,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2264,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2290,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2316,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2342,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2368,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2394,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2420,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2448,11 +2290,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2472,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2498,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2524,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2550,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2576,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2602,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2630,11 +2458,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2654,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
-      </c>
-      <c r="G74" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2680,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2706,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
-      </c>
-      <c r="G76" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2732,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2758,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2784,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2810,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2836,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2862,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>94</v>
-      </c>
-      <c r="G82" t="s">
-        <v>95</v>
-      </c>
-      <c r="H82" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2888,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2914,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2940,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2966,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2992,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3018,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3044,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3070,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
-      </c>
-      <c r="G90" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3096,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3122,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
-      </c>
-      <c r="G92" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3150,11 +2938,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3174,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3202,11 +2986,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3226,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3254,11 +3034,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3278,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3306,11 +3082,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3330,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3358,11 +3130,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97998.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97998.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order.    First, on behalf of all of the members of our subcommittee, we would like to express our deepest condolences to our dear friend and the ranking member of this subcommittee, Ted Deutch. Ted's mom, Jean, passed away last week, and I know that the hearts of every member of this committee go out to Ted and his family during this difficult time.    In Ted's absence, Mr. Connolly will serve as our ranking member today.    After recognizing myself and Ranking Member Connolly for 5 minutes each for our opening statements, I will then recognize any other member seeking recognition for 1 minute.    We will then hear from our esteemed panel of witnesses.    And, without objection, the witnesses' prepared statements will be made a part of the record, and members may have 5 days to insert statements and questions for the record subject to the length and limitation in the rules.    The chair now recognizes herself for 5 minutes. This is the second part of a hearing that we began in May, looking at Egypt's transition since Morsi was removed from power. In the hearing earlier this year, we heard some differences of opinion about the best way to move forward with our policy on Egypt, including exactly how much leverage the United States has or should attempt to wield over Egypt's domestic affairs. Egypt is an important ally and security partner for the United States. Egypt's strategic location, its assurance of safe passage through the Suez Canal, its peace treaty with Israel, and its demographics and cultural influence all mean that Egypt will continue to play a positive, crucial role in the Middle East in the years ahead.    Egypt is in a struggle with terrorism and Islamic jihadist groups, like ISIS and Al Qaeda, a struggle that will not be over, sadly, any time soon. It is essential that we maintain alliances like the one we have with Egypt, not only as a partner in providing logistical support in the region but also as a participant in our shared fight against a twisted radical Islamic ideology.    Egypt's strong relationship with Israel, particularly with regard to their antiterrorism cooperation in the Sinai, is also of strategic benefit to us in the United States, especially in a region that so often appears bent on Israel's destruction. Yes, we have significant human rights concerns with Egypt, including inexcusable restrictions on freedom of the press, assembly, association, and expression; yes, reports of deplorable prison conditions, torture, and inhumane treatment, and discrimination of women and minorities should not and must not be swept under the rug. These issues must be addressed, and I continue to call on Egypt to improve its human rights practices and to allow more political space for Egyptian civil society.    The Egyptians are increasingly looking elsewhere for friends and allies outside of the United States, and it doesn't help when the Obama administration--excuse me, Mr. Connolly--keeps sending mixed messages.    We can work with Egypt to improve our security relationship, to push for human rights changes that we want to see, and to help it toward a long-term stability, economic growth, and progress on the democracy front that President Sisi himself has advocated because make no mistake: Long-term stability will only come with the kind of prosperity, respect for human rights, and self-determination that allows all Egyptians to feel that they have a say in the future of their beloved country.    Egypt just finished the last runoff in its long-delayed parliamentary elections, and while initial observations and reports do not indicate significant progress, I am hopeful that the new legislature will be able to make greater strides in the months ahead. As we all know, democracy is more than just elections, and both the Sisi government and the new legislature should use this time to set the stage for a full democratic transition in the future. One sign of goodwill that President Sisi could make immediately is pardoning the 43 pro-democracy NGO workers who were wrongly convicted in 2013 under Morsi. Correcting Morsi's mistakes this way would go a long way in demonstrating President Sisi's commitment to a democratic future and in repairing the damage that both the Morsi and the Obama administration did to the U.S.-Egypt relationship.    Despite the Obama administration's missteps, the Egyptian people should know that they do have a friend in the United States, a friend who is ready to be a better partner, a stronger ally, and one who is ready to assist when asked in order to achieve the stable, prosperous, open, and inclusive nation that Egyptians all deserve.    Lastly, I would like to once again thank my good friend from Virginia, our ranking member acting today in this capacity. I know that Mr. Connolly has followed these issues for years, ever since he was a Senate staffer on the Foreign Relations Committee. In June 2014, Mr. Connolly and I, as a matter of fact, asked GAO for a study, a report on U.S. foreign assistance to Egypt. And in a couple of days, we will receive the third installment of our report. And I know that we are looking forward to that.    And, with that, I am pleased to yield to today's ranking member, my good friend from Virginia, Mr. Connolly.</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. I thank the chair, and, gosh, I didn't know she was aware of my past work with the U.S. Senate Committee on the Foreign Relations.    The title of this hearing is ``Egypt Two Years After Morsi (Part II).'' It might be more appropriate to acknowledge that Egypt has moved beyond the post-Morsi period and transitioned clearly into a new and distinctly different era, clearly under the leadership of President Abdel Fattah el-Sisi. While we can still view many domestic developments in Egypt within the context of President Morsi's removal from power and the upheaval experienced during and subsequent to the 2013 military coup, Egypt's new leader, President el-Sisi, increasingly owns this moment in Egyptian history.    The U.S. has long paid a price for stability through a strategically important relation with Egypt, and it is the people of Egypt who have had to bear the price with respect to eroded rule of law, the loss of any political space, and the limits on freedom of expression. However, it is in this uniquely el-Sisi moment in Egyptian history that we have seen the simultaneous dissolution of security and democratic freedoms. As we move beyond the re-litigation of the 2013 coup, and as Egypt turns the page on the post-Morsi era, the U.S. owes this important relationship an honest appraisal of Egypt under this new government.    First, the U.S.-Egypt relationship is critical to regional stability and U.S. security interests. As the second largest recipient of U.S. military assistance and a major non-NATO ally, Egypt has long undergirded our security strategy in the Middle East, chief among which is, of course, preservation and maintenance of the Camp David Accords. The U.S. brokered the 1979 peace treaty between Egypt and Israel, ended a historical pattern of violence between the two nations and brought collaboration in a relationship previously defined by absolute conflict. The fact that the treaty was affirmed under both Morsi and now el-Sisi is the kind of continuity and commitment to peace this region desperately needs.    However, the Arab world's most populace nation faces a growing security threat from within, including terrorists blowing out of Libya into the Sinai, and the Egyptian Government has been beset with the challenge of trying to quell these insurgencies, where more than 700 security and defense personnel--Egyptian personnel--have, in fact, been killed.    The breakup of the Russian jet over the Sinai that claimed 224 lives was one of the more high-profile demonstrations of security failures in Egypt to date. The U.S. provides defense articles to assist with counterterrorism initiatives, but cooperation has suffered from poor relationships with Egyptian security institutions whose interests are sometimes misaligned with those of the United States. The effort to align and strengthen those relationships has been tempered by what many have characterized as a faltering democratic tradition--transition in Egypt punctuated with significant human rights violations. Congress has raised concerns about the trajectory of Egyptian democracy and put limiting conditions on U.S. assistance in the consolidated appropriations bills of Fiscal Year 2014 and Fiscal Year 2015.    I have been glad, as the chairman noted, to collaborate with Chairman Ileana Ros-Lehtinen, in working with the GAO to evaluate ongoing security assistance programs in Egypt. Despite the administration's March 31 announcement that it would release frozen military assistance to Egypt, concerns remain. The Secretary of State has yet to certify that Egypt is supporting democratic transition, and we have witnessed troubling developments in the judicial system and brutal crackdowns conducted by security forces. The stream of mass death sentences--death sentences--handed down by Egyptian judges and the killings at al-Nahda and Rabaa al-Adawiya squares erode confidence in the rule of law. The announcement that former President Morsi himself has been sentenced to death was labeled unjust by our own State Department, and there is no doubt that carrying out the sentence would perpetuate the cycle of violence and zero-sum politics in Egypt.    It is estimated that there are now more than 40,000 political prisoners, along with 22 journalists behind bars in Egypt. I have met with individuals personally affected by this crackdown, including a young man, Mohammed Sultan, a young activist detained for more than 400 days after participating in citizen protests. I joined human rights groups in the U.S. State Department in advocating for his release and was pleased to see him finally return home to his family and have the opportunity to meet with Secretary Kerry to discuss his ordeal. What is important: Mohammed Sultan is an American and a victim of the Egyptian justice in the el-Sisi era.    The recently concluded House of Representatives elections did little to consolidate democratic gains, as the chair alluded. As the State Department noted on December 4 regarding those elections, the U.S. remains ``concerned about low voter turnout and limited participation by opposition parties''--it is a bit of an understatement--``Furthermore, the United States continues to have concerns about limits on freedom of peaceful assembly, association, and expression, and their impact on the political climate in Egypt and calls upon the Government of Egypt to ensure these fundamental freedoms.''    As we discuss U.S.-Egypt relations, we must ask ourselves difficult questions about the long-term goals of the relationship in light of backsliding on both the security and civil engagement fronts. Those goals should inform our dialogue with the el-Sisi government and how we confront the fissures that have opened up in this alliance.    One thing of which we can be sure is that continued human rights abuses and power consolidation at the expense peaceful opposition in Egypt is neither consistent with U.S. interests and principles nor an expedient path to an ultimately secure region.    I look forward to hearing the testimony. Thank you, Madam Chair.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Madam Chairman, and thank you for your leadership in this very important time in our history in dealing with Middle East issues. President el-Sisi and his team have saved not just the people of Egypt but the entire Middle East from an unstoppable onslaught of radical Islamic terrorism. That is the bottom line. If he would not have acted, if he was not there today, if he fails, radical Islamic terrorism--that is fundamentally anti-Western in nature--will succeed throughout the Middle East. Leading up to al-Sisi's courageous actions, President Morsi made it clear that he was discarding the pledges of moderation and democratic reform. Morsi was and is part of the Muslim Brotherhood, which for decades has struggled to obtain power in order to achieve radical Islamic objectives. Let's note that one of President Morsi's promises was to free The Blind Sheikh, who is now being held in the United States, for his leadership and guidance in the attack on the World Trade Center, which he was trying to kill thousands of Americans. Yet Mr. Morsi was promising to free him from American captivity.    President Morsi's radical agenda became evident, and the people of Egypt rose up against what they saw was turning Egypt into an anti-Western caliphate. El-Sisi stepped in at that time when there were massive demonstrations against Morsi and prevented bloodshed at that point. And, of course, he won't get credit for that.    And we know that during times of crisis like this, whether it is in our country or other countries, there are things that are totally not consistent with a democratic society at times when things are stable. That is why it is important to lead Egypt toward stability and more democratic process. Morsi set out to do just that.    One last note, if Egypt, again, falls to radicalism, anti-Western radicalism, soon all the governments in that part of the world will be overwhelmed. There is no question about that. Our own Government has not been supportive, using the imperfections, which are many--and we have imperfections here, I might add, many of them--using those imperfections as an excuse to perhaps put us in jeopardy for a major expansion of radical Islamic terrorism in that part of the world. Thank you very much for your hearing today.</t>
   </si>
   <si>
@@ -76,6 +94,12 @@
     <t>412552</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Madam Chair.    Thank you for your leadership and might I say your consistent voice on this issue. There has never been a day that we can't look to your leadership on this particular issue, and I thank you for that. As the witnesses testify today, I think probably the biggest issue that many of us will be looking toward hearing is, how do we take a system that is perhaps not perfect but also address those issues in a spirit of respect and truly out of appreciation for where Egypt is today?    It would be a mistake to focus so much on the imperfections without acknowledging some of the areas that have been addressed, and specifically Ambassador Tawfik, who is now back in Egypt, was the Ambassador from Egypt to Washington, DC, to the United States, during both government operations, was a personal friend. And one of the things that continued to be mentioned over and over again was how the Egyptian people felt like the United States had abandoned them in that friendship.    So if there is one message, Madam Chairman, that I want to communicate to the Egyptian people today, it is that there are a number of us, not just on Capitol Hill but across the United States, who look forward to an ongoing personal relationship with those in Egypt and that they can count on not only our strategic partnership but our friendship as we work through some of the difficulties that may face us.    I yield back.</t>
   </si>
   <si>
@@ -85,6 +109,12 @@
     <t>412636</t>
   </si>
   <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Chairwoman Ros-Lehtinen and Ranking Member Connolly. Although it has been a tumultuous few years, Egypt has always been an important and integral part of the United States-Middle East policy, even more so as our allies in the region face a range of threats from various state and non-state actors.    While most of the testimony today is going to rightfully be focused on security and stability in the elections, I would like to bring awareness to the situation of the    Copts, the region's largest Christian community. This past October, we commemorated the 4-year anniversary of Maspero, where peaceful protestors, mostly Copts, were attacked by state security forces. January 1 commemorates the 5-year anniversary of the bombing of the All Saints Church in Alexandria, where Copts were attacked and killed reportedly by non-state actors. This follows a disturbing trend of persecution against a peaceful group of people who have been in Egypt since Saint Mark brought Christianitythere over 2,000 years ago. The Copts under Morsi and the Muslim Brotherhood were at the height of their modern-day persecution, with unprecedented attacks and rhetoric aimed at their Pope and religious institutions.    I was happy to see President Sisi visit a Coptic church to celebrate Christmas last year, and I hope that this is a sign that his administration will be as inclusive as possible with the Copts. This is an important issue I plan to stay focused on as Egypt looks to regain its footing, both domestically and internationally. I look forward to hearing from our esteemed panel particularly how the Copts are faring under President Sisi and what steps the Egyptian Government is taking to ensure that the Copts are part of Egypt's future.    I yield back my time.</t>
   </si>
   <si>
@@ -94,24 +124,39 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you to the chairwoman for having this hearing. You are always consistent, and we appreciate that, as Representative Meadows said.    I appreciate you all coming. I am very interested to see what you think about how Egypt is going to handle ISIS and at the same time treat their citizens, particularly Christians, fairly. What are they going to do with Russia? And how are they going to treat Israel? And how do you get all that right at the same time? I think they have got a big balancing act here, and I am very curious what you have all got to say about it because we need to stop ISIS. We need to protect all folks, particularly Christians in this case, and we have got to protect Israel. So I am looking forward to hearing what you all have to say.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you very much to all of our members for their opening statements.    I now would like to introduce our distinguished panel of witnesses. First, we are pleased to welcome Mr. David Schenker, who is the director of Arab Politics at the Washington Institute for Near East policy. Previously, Mr. Schenker has served as the Department of Defense top policy aide on Arab countries, and he is the author of several books on Middle Eastern countries, as well as a regular contributor to several major daily newspapers.    Welcome, sir.    Next, we would like to welcome Mr. Eric Bjornlund, who is the president and cofounder of Democracy International. Eric has served for the National Democratic Institute as a senior associate and Asia director and as director of program coordination and general counsel. He was also a Woodrow Wilson fellow at the Wilson International Center for Scholars.    Welcome.    And, last but certainly not least, we would like to welcome back Dr. Steven Cook, who is the senior fellow for Middle East and Africa at the Council on Foreign Relations. Prior to this, Dr. Cook was a research fellow at the Brookings Institution and Washington Institute for Near East Policy.    Thank you, gentlemen, for being with us. Your statements will be made a part of the record. Please feel free to summarize. We will start with Mr. Schenker.</t>
   </si>
   <si>
+    <t>Schenker</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schenker. Thank you, Madam Chair, Ranking Member Connolly, distinguished members of the subcommittee. It is an honor to be here today to discuss security in Egypt 2 years after Morsi.    While the increasingly repressive trajectory of Sisi's Egypt should be a concern for Washington, the ongoing deterioration of security in Egypt is the more immediate threat. The recent downing of the Russian airliner over the Sinai by the Islamic State has drawn international attention to the problem. The reality, however, is that terrorism in Egypt is not confined to the Sinai. Terrorism in Egypt has traversed the Suez Canal and is taking root in the Nile valley.    Historically security in Egypt, and particularly in the Sinai, has never been particularly good, but it has deteriorated after the fall of Mubarak, and the violence spiked after the removal of Morsi, morphing into a full-scale Islamist insurgency now led by Wilayat Sinai, an Islamic State affiliate.    Since Morsi's removal, in addition to the bombed Russian airliner, we have seen tourists targeted the Sinai, checkpoints and police stations attacked, RPGs fired at ships in the Suez Canal. MANPADs have brought down ships and helicopters over the Sinai, and a Russian Kornet anti-tank weapon sunk an Egyptian warship in the Mediterranean off the Sinai coast. Over the past few years, more than 1,000 Egyptian soldiers and policemen are estimated to have been killed in the Sinai.    Meanwhile, west of the Suez Canal, Egypt resembles the country in the 1990s when the State battled an insurgency led by Gamaa al-Islamiyah. In 2014, there were more than 300 attacks perpetrated in Egypt outside of the Sinai, and that number is likely to double in 2015. In this past summer alone, you had the chief prosecutor of Egypt, Hisham Barakat, assassinated in Cairo. You had a state security building bombed in Cairo and a suicide bomber attempted to target tourists in Luxor, all within 2 months.    No doubt Egypt is situated in a difficult neighborhood, but many of problems are self-inflicted. Egypt, for example, has not prioritized border security with Libya, the primary source of weapons flowing to the Sinai. Egypt's domestic counterterrorism capabilities are likewise lacking. If the accidental killing of eight Mexican tourists in the Western Desert in September 2015 is any indication, intelligence gathering on communications between the military and other domestic security agencies is also a real problem. Clearly, intelligence gathering remains a serious deficit in the Sinai as well, even though cooperation with the Israelis is reportedly helping fill some gaps.    Security challenges facing Egypt are enormous, and at present, Cairo does not appear to be up to the task. Given the regional deterioration, the continued stability and security of Egypt should be a priority for the U.S. There is much that we can do to help--working with Cairo--to mitigate the threats. These might include counterterrorism training. Egypt's heavy-handed and purely military approach has not succeeded, and it is not likely to succeed. It is not a problem of manpower. It is a problem of tactics. Egypt is resistant to change, but Washington has to continue to push Egypt to adopt modern COIN, counterinsurgency, techniques.    Second, developing the Sinai. Egypt's Sinai counterinsurgency approach is one-dimensional, but successful COIN campaigns have both civilian and military aspects. Absent educational and economic opportunities, the Sinai will continue to prove fertile ground for jihadist recruitment. We really have to invest in the Sinai and get our allies to do so.    We should leverage the Gulf. We have not been particularly good or successful in conditioning assistance to Egypt. I don't think we should pursue that route. We should be working with our Gulf allies, who give a lot more money, frankly, to Egypt than we do. There would be a lot more leverage, I think, there. And they would help perhaps to get Egypt to move toward economic development and adopt modern COIN techniques in the Sinai.    We also need to increase visibility in the Sinai. Sinai currently is closed. We don't have a very good idea of what is going on, especially important given the extensive reports of collateral damage and human rights abuses there.    We should also help Egypt to secure its border with Libya. We pressed them to reprogram some of the $1.3 billion in their foreign assistance dollars to put different systems on the border. They have refused. They should devote financial resources to aerostat balloons, C4ISR, and even Black Hawk helicopters.    We have to help Egypt improve its airport security. This is a problem that Western financial and technical support can solve or at least help mitigate. We should prevent further unproductive delays in transfer of equipment. When we stop the flow, for example, of Apache helicopters, that is a primary tool in the counterinsurgency. There are other things we can keep from Egypt if we want to express our disappointment or anger with them. They viewed this, the withholding of the Apaches, as confirming the conspiracy that we wanted the return of the Muslim Brotherhood to government in Egypt.    Finally, we should avoid trying to leverage U.S. military assistance. It is not a productive policy. Even though the human rights are problematic and perhaps counterproductive to long-term stability of Egypt, the cutoff in U.S. assistance will neither improve Cairo's conduct nor enhance our already fraught bilateral relationship.    With that, thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you very much. Excellent suggestion.    Mr. Bjornlund.</t>
   </si>
   <si>
+    <t>Bjornlund</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bjornlund. Thank you, Madam Chairman, Ranking Member Connolly, other distinguished members of the subcommittee. It is an honor to appear today to address these important issues.    The recent House of Representatives elections in Egypt, which took place in stages from October to early December, marked the conclusion of the so-called roadmap to democracy declared after the ouster of President Morsi in July 2013. While these recent elections, along with the constitutional referendum and Presidential election last year, have completed a process of civilianizing the highest levels of government, they have not resulted in a more free or democratic Egypt.    Since 2013, Democracy International has monitored the electoral component of the roadmap through multiple international observation missions and a regular presence in country. As president of DI, I have had the opportunity to visit Egypt many times since the spring of 2013 and to lead our observation missions there.    Democracy International deployed the largest international mission to observe the constitutional referendum in January 2014. In May 2014, we carried out one of the largest comprehensive missions to observe the Presidential election process. But after the parliamentary elections were rescheduled for October to December of this year, we were unable to obtain visas for core staff members and observers until after voting had commenced in October. This initially limited our access to the process during the pre-election period and precluded the deployment of a full observation mission for the first stage. We, nonetheless, observed voting in 158 locations in 5 governorates. For the second stage in November and early December, our observers witnessed the balloting in 422 locations in 8 governorates, and we conducted more than 160 meetings with a broad range of stakeholders.    The elections took place amidst a backdrop of arrests, an ongoing crackdown on civil society and the media, and forced disappearances. Once-strong movements and political parties have been silenced. Opponents of the government have been arrested. Courts have ordered dissolution of their organizations. And an orchestrated campaign equating dissent with terrorism is echoed by much of the Egyptian media. This climate has not been conducive to meaningful democratic elections.    Public interest in the most recent elections was muted. Turnout was relatively low, especially among younger Egyptians. During 8 days of voting across the country, our observers rarely saw voters under the age of 35. Critics of the government, including groups who might identify themselves as liberals, as well as those that opposed the removal of former President Morsi, were largely prevented from participating or chose to boycott. Islamist parties, which constituted a majority of the Parliament elected in January 2012, were almost entirely absent or excluded.    The electoral system did not promote inclusion. Most of the members were elected as individuals and are nominally independent; 120 of the 596 members were elected on a winner-take-all basis from lists running in four large districts. Unlike traditional list systems in other countries which provide a means for including smaller parties and minority points of view, the list portion of the system in Egypt had the opposite effect. In fact, For the Love of Egypt, which is widely perceived to have the support of the government, won all 120 of the list seats.    Despite the presence of international and domestic observers, the election process was not fully open to independent scrutiny. Domestic election observation was neither robust nor widespread. Legitimate accredited international observers encountered obstacles, while others were simply not able to participate. The Carter Center announced in 2014 that it would not monitor the legislative elections after assessing that political space has narrowed. NDI, IRI, the Konrad Adenauer Foundation, and Freedom House, among others, were not able to even consider the possibility of observing or otherwise supporting Egyptian efforts because of the unjust and widely condemned trials and spurious convictions of 43 NGO workers in 2013.    To the credit of the High Electoral Commission and those who provided technical assistance to it, especially the International Foundation for Election Systems, the balloting process for the elections was conducted in an administratively satisfactory manner, and polling officials appeared diligent and conscientious. Nevertheless, procedures in polling stations and for the counting where we observed varied considerably from one to another. This might have been more worrisome if voter turnout had been higher or the elections had been more vigorously contested.    We should not misinterpret the orderliness of these elections. Larger stories about the parties and candidates who were not allowed to participate, the voters who stayed away, and the independent observers, domestic and international alike, who could not observe, all of which has occurred in a climate of political repression and declining freedoms. These elections reflect the trend we have observed throughout the past 2 years, decreasing space for political competition and increasing repression of opposition.    Genuine democracy is the only path to long-term stability in Egypt. Political repression and a disregard for basic rights make real democracy impossible and will only increase the ongoing polarization of Egyptian society. For Egypt to move forward with peace and stability, its leaders need to embrace political inclusion and to reorient the country toward broader respect for human rights and effective democratic institutions.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you, sir.    Dr. Cook.</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Madam Chair. And, Mr. Connolly, today the ranking member. It is a pleasure to be before you to discuss Egypt 2 years after Morsi.    As you are well aware, the United States has invested $76 billion in Egypt since 1948. Egypt is important to the United States because it is at peace with Israel; it operates the Suez Canal, which is critical to both global trade and U.S. security policy; and it provides logistical support to American Forces operating in and around the Middle East and the Horn of Africa.    There was tremendous hope after Hosni Mubarak fell in February 2011, that Egypt would become democratic, provide an opportunity for its people to live prosperous, dignified lives. Unfortunately, those hopes have been misplaced. The coup d'etat that brought an end to the Muslim Brotherhood's Mohammed Morsi's brief tenure at the Presidency has also not resulted in stability, prosperity, or democracy in Egypt. The most oft-cited figures are, since Morsi's ouster, an estimated 41,000 Egyptians have been jailed; about 3,000 have been killed. Those numbers, though, are certainly too low since they don't include most of 2015.    It is also important to point out, however, that 700 soldiers, officers, and other policemen, have lost their lives in a nasty insurgency raging in the Sinai Peninsula. In November 2014, in an ominous sign, the homegrown Egyptian jihadist group, Ansar Bayt al-Maqdis, pledged its allegiance to the self-declared Islamic State and changed its name to the Sinai Province of the Islamic State.    The four most important things that Members of Congress need to know about Egypt are the following: First, the Egyptian state is weak.    Second, President Sisi has not consolidated his power. That Sisi does not command the state should not be surprising. It took Mubarak the better part of a decade to clear away all of his opponents. In Egypt today, there is a struggle among multiple competing centers of power that include the Presidency, the armed forces, the General Intelligence Directorate, the Ministry of Interior, and the senior judiciary.    Three, Egypt's hypernationalist political discourse is polarizing and radicalizing the political arena.    Four, Sisi has clearly not learned the lessons of the Mubarak period. His overreliance on force and coercion is an inefficient means of establishing political control. If you ask me today if I believe that Egypt is stable, the intellectually honest answer is: I don't know, but President Sisi has offered us some clues to that stability based on the way he rules, and the way he rules, relying almost entirely on force and coercion, does not give me confidence.    What is the appropriate policy toward Egypt? It depends on what the United States wants, an issue with which policymakers have been struggling for the last 10 or 15 years. Democracy, it makes little sense to talk about supporting democratic transition in Egypt today. There is also little reason to believe that the United States has the capacity to influence the direction of Egyptian politics. The Obama administration went so far as to delay military assistance and change the terms of that aid for the future. Yet it did not change Egyptian behavior.    On the economy, some believe that this is an opportunity for the United States to make a difference on the Egyptian economy. We should be cautious here. Those in power in Egypt today do not believe in an inclusive, broad, capitalist political economic development, but rather they are statists.    On security, Egypt is confronting a significant threat in the Sinai Peninsula from extremist groups. Unlike the Government of Iraq, which until the recent Ramadi operation has relied on Shiite death squads, Egypt has used its regular army in the fight. For a variety of reasons related to the U.S. assistance program, the senior command's resistance to altering its doctrine, and restrictions on the armed forces that stem from the Egypt-Israel Peace Treaty, the military has proven itself neither well-prepared nor well-equipped to take on the insurgency. They are getting critical assistance from the United Arab Emirates and, if reports are to be believed, Israel, but only the United States can really provide the resources necessary for the Egyptians. If the Egyptian armed forces distrust the United States--I am in whole agreement with David Schenker, how the suspension of critical defense articles have driven a wedge between the United States and the Egyptian armed forces.    What should the United States do? Very quickly, three things. First, in our diplomacy with Egypt, we must emphasize first-order first principles of tolerance, equal application of law, compromise, and nonviolence. Second, we must invest in Egypt's political future. It seems now that Egypt's future is unstable and authoritarian, but Egypt can change very quickly. It is worth our time and effort to invest in that political future.    And then, finally, we must support Egypt's fight against extremists. The United States should maintain its assistance package at current levels. It should also encourage the Egyptians through the promise of additional resources to alter its doctrine, its mix of equipment, to meet what the Pentagon calls 21st century threats. It seems perverse to offer to pay the Egyptians to do something that they already should be doing. But if our national interest dictates that we should help the Egyptians in this fight, it is the most effective means to go forward.    One last thing. Policymakers should be realistic about Egypt. The United States and Egypt have enjoyed strategic relations since the mid-1970s. Those relations are changing. These two countries are drifting apart. The Egyptians, as you, Madam Chairman, pointed out, are looking for new friends around the world. This is something consistent in Egyptian foreign policy. We must be prepared that our ability to affect what happens in Egypt is rather limited.</t>
   </si>
   <si>
@@ -272,6 +317,12 @@
   </si>
   <si>
     <t>412525</t>
+  </si>
+  <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Madam Chair. And I apologize for getting here late.    Gentlemen, what is the status of ISIS in Egypt? And if you covered that already, I apologize. Are they growing? Do they have bases? Do they have training centers, recruitment centers, in your opinion? Mr. Schenker?</t>
@@ -704,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,7 +763,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,2405 +785,2792 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
       <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
       <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
       <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G74" t="s">
+        <v>101</v>
+      </c>
       <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G76" t="s">
+        <v>101</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G78" t="s">
+        <v>101</v>
+      </c>
       <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>85</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>101</v>
+      </c>
       <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>85</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G82" t="s">
+        <v>101</v>
+      </c>
       <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>85</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G84" t="s">
+        <v>101</v>
+      </c>
       <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>43</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>85</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G86" t="s">
+        <v>101</v>
+      </c>
       <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>85</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G88" t="s">
+        <v>101</v>
+      </c>
       <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>85</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G90" t="s">
+        <v>101</v>
+      </c>
       <c r="H90" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>85</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G92" t="s">
+        <v>101</v>
+      </c>
       <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
       <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97998.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97998.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ros-Lehtinen</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412272</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Connolly</t>
@@ -755,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +772,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,2789 +797,2976 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I76" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>40</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G84" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G86" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>43</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G88" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>43</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G90" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I90" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>43</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G92" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I92" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>43</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>130</v>
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
